--- a/kendamil_milk_formulas.xlsx
+++ b/kendamil_milk_formulas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yeshwanth\Desktop\uyyaala to kidsfud products\milk_formulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12614E8E-CEBA-43EC-AA02-F162E24E347C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F647FEC5-4B7C-44D7-9751-D44CD5AB1B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
